--- a/202104/20210417/代码注释规范.xlsx
+++ b/202104/20210417/代码注释规范.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/houjie/blog/202104/20210417/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A20D43-4A07-5B4A-BF86-22227A71CB5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9ED889-0C6A-5E4B-8691-577077C819C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14320" xr2:uid="{96DACC75-7DE0-674B-B9FF-357EE111EAC8}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="24940" windowHeight="14300" xr2:uid="{96DACC75-7DE0-674B-B9FF-357EE111EAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文档注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,10 @@
   </si>
   <si>
     <t>/*……*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD46836-79F0-1C43-9219-E4443CB4E30F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -478,10 +478,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
